--- a/files/output_file_split.xlsx
+++ b/files/output_file_split.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -528,12 +528,20 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -565,7 +573,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -589,7 +597,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -621,7 +629,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -645,7 +653,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -677,7 +685,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -701,7 +709,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -741,7 +749,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -760,12 +768,20 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -784,20 +800,12 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -816,12 +824,20 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Duxford Range Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the center right position of the page"</t>
+          <t>"Part Number - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -880,7 +896,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>table_header_descriptor</t>
+          <t>table_header_position</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -922,7 +938,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -946,7 +962,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -978,7 +994,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1002,7 +1018,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1034,7 +1050,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1058,7 +1074,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1090,7 +1106,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1114,7 +1130,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1154,7 +1170,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1178,7 +1194,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1210,7 +1226,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1234,7 +1250,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Duxford Range - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">

--- a/files/output_file_split.xlsx
+++ b/files/output_file_split.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Page_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Page_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -528,20 +528,12 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -573,7 +565,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -597,7 +589,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -629,7 +621,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -653,7 +645,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -685,7 +677,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -709,7 +701,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -749,7 +741,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -768,20 +760,12 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -800,12 +784,20 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>16W</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1600lm</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -824,20 +816,12 @@
         </is>
       </c>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>16W</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1600lm</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number - Can be found on the top right position of the page"</t>
+          <t>"Part Number - Can be found on the right middle position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -938,7 +922,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -962,7 +946,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -994,7 +978,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1018,7 +1002,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1050,7 +1034,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1074,7 +1058,7 @@
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1106,7 +1090,7 @@
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1130,7 +1114,7 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1170,7 +1154,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1194,7 +1178,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1226,7 +1210,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1250,7 +1234,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the right side of the page"</t>
+          <t>"Part Number Description Dimensions Power Lumens Colour Temp. - Can be found on the top right position of the page"</t>
         </is>
       </c>
       <c r="H13" t="n">
